--- a/fixtures/xlsx/basic/shape-textbox.xlsx
+++ b/fixtures/xlsx/basic/shape-textbox.xlsx
@@ -31,6 +31,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" anchor="t"/>
